--- a/NEW Templates/NEW Template_Produit_EMPAP_CrystalchainMonoprix.xlsx
+++ b/NEW Templates/NEW Template_Produit_EMPAP_CrystalchainMonoprix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathias/Crystalchain Dropbox/Equipe/Projets/PRIME/AGEC/40 - Clients/Monoprix/Batch Fournisseurs/NEW Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Drive partagés\7 - Projects\Trace\PRIME\AGEC\40 - Clients\Monoprix\Batch Fournisseurs\NEW Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A33B8C-F49F-B243-870F-13844C4BCA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5250923D-CEFA-4C39-A4E0-AEAA30AB74D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{5D9087EA-63B8-6948-AC43-F520E925D193}"/>
   </bookViews>
   <sheets>
     <sheet name="Format" sheetId="1" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{AC6CD8C8-EDA4-4BBA-BA50-064BA0372D4A}">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{5D369807-7C50-4290-AB1B-67603670AA72}">
       <text>
         <r>
           <rPr>
@@ -2192,9 +2192,6 @@
 </t>
   </si>
   <si>
-    <t>Incorporation de matière recyclée_x000B_Incorporation of recycled material</t>
-  </si>
-  <si>
     <t>Recyclabilité
 Recyclability</t>
   </si>
@@ -2291,6 +2288,10 @@
   </si>
   <si>
     <t>Bloc note 100 feuilles, format A5, couverture grise.</t>
+  </si>
+  <si>
+    <t>Incorporation de matière recyclée (%)
+Incorporation of recycled material (%)</t>
   </si>
 </sst>
 </file>
@@ -2535,7 +2536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2613,9 +2614,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6805,21 +6803,14 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Format"/>
-      <sheetName val="PRODUIT-AGEC"/>
-      <sheetName val="data"/>
+      <sheetName val="ALPARGATAS SLU_Template_Produit"/>
     </sheetNames>
     <definedNames>
       <definedName name="convertUTF8"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7128,7 +7119,7 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.33203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -7140,7 +7131,7 @@
     <col min="12" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
@@ -7157,7 +7148,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -7172,7 +7163,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -7185,7 +7176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -7198,7 +7189,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -7211,7 +7202,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -7224,7 +7215,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -7239,7 +7230,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
@@ -7252,7 +7243,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
@@ -7275,7 +7266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
@@ -7296,7 +7287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -7309,7 +7300,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>52</v>
       </c>
@@ -7335,7 +7326,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>53</v>
       </c>
@@ -7348,7 +7339,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
@@ -7372,7 +7363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
@@ -7396,7 +7387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
@@ -7409,7 +7400,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>21</v>
       </c>
@@ -7430,7 +7421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
@@ -7444,7 +7435,7 @@
       <c r="E18" s="9"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
@@ -7457,7 +7448,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>55</v>
       </c>
@@ -7470,7 +7461,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>56</v>
       </c>
@@ -7494,7 +7485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
@@ -7507,7 +7498,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
@@ -7520,7 +7511,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
@@ -7533,7 +7524,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -7546,7 +7537,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>16</v>
       </c>
@@ -7559,7 +7550,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>17</v>
       </c>
@@ -7572,7 +7563,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
@@ -7585,7 +7576,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>24</v>
       </c>
@@ -7598,7 +7589,7 @@
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>18</v>
       </c>
@@ -7611,7 +7602,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>19</v>
       </c>
@@ -7624,7 +7615,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>20</v>
       </c>
@@ -7655,41 +7646,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA37F5C3-7354-694B-9426-36415606EC13}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="63" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24" style="38" customWidth="1"/>
-    <col min="4" max="6" width="22" style="38" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="38" customWidth="1"/>
-    <col min="11" max="11" width="35.5" style="38" customWidth="1"/>
-    <col min="12" max="13" width="21.5" style="38" customWidth="1"/>
-    <col min="14" max="14" width="25" style="38" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" style="38" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="38" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="21.1640625" style="38" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="18.5" style="38" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5" style="38" customWidth="1"/>
-    <col min="22" max="22" width="19.33203125" style="38" customWidth="1"/>
-    <col min="23" max="23" width="18.5" style="38" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="38" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" style="38" customWidth="1"/>
-    <col min="26" max="26" width="15.33203125" style="38" customWidth="1"/>
-    <col min="27" max="27" width="21.5" style="38" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="23" style="38" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="26.5" style="38" customWidth="1"/>
-    <col min="30" max="30" width="18" style="38" customWidth="1"/>
-    <col min="31" max="16384" width="11.1640625" style="38"/>
+    <col min="1" max="1" width="18.6640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="16" style="37" customWidth="1"/>
+    <col min="3" max="3" width="24" style="37" customWidth="1"/>
+    <col min="4" max="6" width="22" style="37" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" style="37" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="37" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="35.5" style="37" customWidth="1"/>
+    <col min="12" max="13" width="21.5" style="37" customWidth="1"/>
+    <col min="14" max="14" width="25" style="37" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" style="37" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="37" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="21.1640625" style="37" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="18.5" style="37" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5" style="37" customWidth="1"/>
+    <col min="22" max="22" width="19.33203125" style="37" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="37" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="37" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" style="37" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" style="37" customWidth="1"/>
+    <col min="27" max="27" width="21.5" style="37" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="23" style="37" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5" style="37" customWidth="1"/>
+    <col min="30" max="30" width="18" style="37" customWidth="1"/>
+    <col min="31" max="16384" width="11.1640625" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" customFormat="1" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" customFormat="1" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -7706,7 +7697,7 @@
         <v>73</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -7780,7 +7771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="36" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" s="35" customFormat="1" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>74</v>
       </c>
@@ -7797,7 +7788,7 @@
         <v>73</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>78</v>
@@ -7811,255 +7802,267 @@
       <c r="J2" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>82</v>
       </c>
       <c r="L2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="O2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="32" t="e" cm="1">
+      <c r="R2" s="31" t="e" cm="1">
         <f t="array" ref="R2">TrimanBacDeTri</f>
         <v>#NAME?</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="32"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AD2" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="AD2" s="33" t="s">
-        <v>90</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="43">
+        <v>4006381333931</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="39">
+        <v>0</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="W3" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="43">
+        <v>5012345678901</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="W4" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="43">
+        <v>9780201379624</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="39">
+        <v>20</v>
+      </c>
+      <c r="M5" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="V5" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="44">
+        <v>3607343214682</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="39">
+        <v>0</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="W6" s="40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="D7" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="44">
+        <v>8806085947126</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="39">
         <v>100</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="44">
-        <v>4006381333931</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="42"/>
-      <c r="M3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" s="41" t="s">
+      <c r="N7" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="V3" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="W3" s="41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="44">
-        <v>5012345678901</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="44">
-        <v>9780201379624</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="41">
-        <v>30</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="V7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="45">
-        <v>3607343214682</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="W6" s="41" t="s">
+      <c r="W7" s="40" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="45">
-        <v>8806085947126</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="W7" s="41" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
